--- a/assets/sp_cetesb_infoaguas/excel/MOVE03400.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/MOVE03400.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,17 +510,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>18.00000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,13 +536,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14.40000000</t>
+          <t>15.10000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,18 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14.80000000</t>
+          <t>0.00070000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Crômio Total</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00070000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -622,18 +622,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.07000000</t>
+          <t>158.00000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -648,18 +648,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Cor Verdadeira</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.01000000</t>
+          <t>58.70000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg Pt/L</t>
         </is>
       </c>
     </row>
@@ -674,18 +674,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.10000000</t>
+          <t>257.00000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -700,18 +700,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16.80000000</t>
+          <t>164.00000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00400000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -756,13 +752,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>0.00400000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -782,18 +782,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.08000000</t>
+          <t>16.80000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Cobre Dissolvido</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -838,18 +838,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.32000000</t>
+          <t>1.07000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -864,18 +864,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>164.00000000</t>
+          <t>14.80000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -890,18 +890,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>14.40000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -916,18 +916,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -942,18 +942,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>38000.00000000</t>
+          <t>57.00000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -968,18 +968,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>257.00000000</t>
+          <t>13.30000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -994,18 +994,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>57.00000000</t>
+          <t>38000.00000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1020,13 +1020,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>158.00000000</t>
+          <t>5.52000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1046,18 +1046,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cor Verdadeira</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>58.70000000</t>
+          <t>0.49000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>mg Pt/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1072,13 +1072,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>0.00010000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1098,17 +1102,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.32000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1128,13 +1128,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13.30000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1154,13 +1158,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18.00000000</t>
+          <t>2.95000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1180,13 +1184,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sódio</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15.10000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1206,18 +1214,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -1232,18 +1240,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1270,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>4.01000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1288,13 +1296,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.18000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1314,13 +1326,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.94000000</t>
+          <t>2.10000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1340,13 +1352,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.95000000</t>
+          <t>6.08000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1366,17 +1378,13 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1396,22 +1404,18 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.00300000</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -1426,18 +1430,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.42000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1452,13 +1456,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.49000000</t>
+          <t>0.32000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1504,13 +1508,13 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.52000000</t>
+          <t>5.94000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1530,17 +1534,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>7.18000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1560,18 +1560,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.49000000</t>
+          <t>7.42000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1586,13 +1586,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.32000000</t>
+          <t>0.00300000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1612,13 +1616,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bário Total</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>0.00700000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1638,17 +1646,13 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.00010000</t>
+          <t>0.49000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1668,17 +1672,13 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.00700000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1698,13 +1698,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>244.00000000</t>
+          <t>1.60000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1724,18 +1724,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>6.85000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1750,18 +1750,18 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.27000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1776,18 +1776,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>19.40000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1802,13 +1802,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>10.60000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1828,13 +1828,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.60000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1854,13 +1858,13 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8.54000000</t>
+          <t>154.00000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1880,18 +1884,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10.60000000</t>
+          <t>18.80000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1906,18 +1910,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>18.80000000</t>
+          <t>18.10000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1932,13 +1936,13 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>154.00000000</t>
+          <t>0.85000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1958,18 +1962,18 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>9.07000000</t>
+          <t>44000.00000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1984,13 +1988,13 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.16000000</t>
+          <t>0.27000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2010,13 +2014,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>0.16000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2036,18 +2040,18 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6.85000000</t>
+          <t>244.00000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2062,13 +2066,13 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>18.10000000</t>
+          <t>9.07000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2088,18 +2092,18 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>19.40000000</t>
+          <t>8.54000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2114,22 +2118,18 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>10.40000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2144,18 +2144,18 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.85000000</t>
+          <t>266.00000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2170,13 +2170,13 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7.59000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2222,18 +2222,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10.40000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2248,18 +2248,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>266.00000000</t>
+          <t>7.59000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2274,18 +2274,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>44000.00000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2300,17 +2300,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>1.28000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2330,17 +2326,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>3.22000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2360,18 +2352,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>19.10000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -2386,13 +2378,13 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11.20000000</t>
+          <t>11.50000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2412,13 +2404,13 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>12.40000000</t>
+          <t>7.55000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2438,22 +2430,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2468,18 +2456,18 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2494,18 +2482,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>67000.00000000</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -2520,13 +2512,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2546,13 +2542,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>7.55000000</t>
+          <t>192.00000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2572,22 +2568,18 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2602,13 +2594,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.28000000</t>
+          <t>148.00000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2628,18 +2620,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.65000000</t>
+          <t>67000.00000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2654,13 +2646,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2.94000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2680,13 +2676,13 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.22000000</t>
+          <t>59.80000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2706,13 +2702,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.18000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2732,13 +2732,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>11.20000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Cádmio Total</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2788,13 +2788,13 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1.04000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -2814,13 +2814,13 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>59.80000000</t>
+          <t>8.01000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -2840,18 +2840,18 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>8.01000000</t>
+          <t>334.00000000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2866,22 +2866,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>45.10000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg Pt/L</t>
         </is>
       </c>
     </row>
@@ -2896,13 +2892,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>11.50000000</t>
+          <t>19.10000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -2922,17 +2918,13 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.18000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -2952,13 +2944,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>192.00000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -2978,18 +2974,18 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3004,22 +3000,18 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>27.00000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3034,18 +3026,18 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.65000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3060,18 +3052,18 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>334.00000000</t>
+          <t>2.94000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3086,18 +3078,18 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>1.91000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3104,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3122,7 +3114,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3142,7 +3134,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Alumínio Dissolvido</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3152,7 +3144,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.00400000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3172,18 +3164,18 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cor Verdadeira</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>45.10000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>mg Pt/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -3198,13 +3190,13 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>148.00000000</t>
+          <t>23.90000000</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3224,13 +3216,13 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.26000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3250,18 +3242,18 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>26.20000000</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3268,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3286,7 +3278,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3306,18 +3298,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>27.00000000</t>
+          <t>0.00400000</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3332,13 +3328,13 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>23.90000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3358,18 +3354,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1.91000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3384,13 +3384,13 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>0.26000000</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3410,13 +3410,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3436,17 +3440,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>1.04000000</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3466,18 +3466,18 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>26.20000000</t>
+          <t>12.40000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3518,18 +3518,18 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>26.80000000</t>
+          <t>6.29000000</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3544,18 +3544,18 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>4.25000000</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3570,13 +3570,13 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.29000000</t>
+          <t>4.76000000</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3596,13 +3596,13 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.07700000</t>
+          <t>14.80000000</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3652,17 +3652,13 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3682,13 +3678,13 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0.18000000</t>
+          <t>68.20000000</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3708,13 +3704,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0.46000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -3734,13 +3734,13 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>7.40000000</t>
+          <t>21.70000000</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3760,13 +3760,13 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>3.40000000</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -3786,18 +3786,18 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3.40000000</t>
+          <t>49000.00000000</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -3812,17 +3812,13 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.26000000</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3842,18 +3838,18 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3868,13 +3864,13 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.26000000</t>
+          <t>0.07700000</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3894,13 +3890,13 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>6.29000000</t>
+          <t>0.18000000</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3920,18 +3916,18 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0.70000000</t>
+          <t>0.94000000</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -3946,17 +3942,13 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>6.10000000</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4002,17 +3994,13 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>0.76000000</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4032,18 +4020,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>15.30000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4058,13 +4050,13 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>16.60000000</t>
+          <t>0.29000000</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4084,13 +4076,13 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>4.76000000</t>
+          <t>1.98000000</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4110,18 +4102,18 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>49000.00000000</t>
+          <t>2.96000000</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4136,13 +4128,13 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>68.20000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4162,18 +4154,18 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.46000000</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4188,13 +4180,13 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>176.00000000</t>
+          <t>0.70000000</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4214,13 +4206,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>4.25000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4240,7 +4236,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
+          <t>Cádmio Total</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4250,7 +4246,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4296,18 +4292,18 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>23.00000000</t>
+          <t>176.00000000</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4322,18 +4318,18 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Cor Verdadeira</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>42.10000000</t>
+          <t>262.00000000</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>mg Pt/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -4348,13 +4344,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>6.10000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -4374,17 +4374,13 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>7.40000000</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4404,18 +4400,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0.94000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4430,17 +4430,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4460,18 +4456,18 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>176.00000000</t>
+          <t>23.00000000</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4486,18 +4482,18 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Cor Verdadeira</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.76000000</t>
+          <t>42.10000000</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg Pt/L</t>
         </is>
       </c>
     </row>
@@ -4512,13 +4508,13 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>2.96000000</t>
+          <t>176.00000000</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -4538,13 +4534,17 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -4564,18 +4564,18 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>14.80000000</t>
+          <t>2.34000000</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -4590,18 +4590,18 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>2.34000000</t>
+          <t>16.60000000</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4616,13 +4616,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1.98000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -4642,18 +4646,18 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>14.80000000</t>
+          <t>26.80000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -4668,22 +4672,18 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>15.30000000</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4698,18 +4698,18 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>21.70000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -4724,18 +4724,18 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>262.00000000</t>
+          <t>14.80000000</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4750,18 +4750,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4776,13 +4780,13 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>14.70000000</t>
+          <t>2.00000000</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -4802,13 +4806,13 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>10.40000000</t>
+          <t>1.16000000</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -4828,18 +4832,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4854,13 +4862,13 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>33.00000000</t>
+          <t>10.40000000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -4880,18 +4888,18 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>25.70000000</t>
+          <t>254.00000000</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4906,13 +4914,17 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>242.00000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -4932,18 +4944,18 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>7.00000000</t>
+          <t>10.00000000</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -4958,17 +4970,13 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -4988,18 +4996,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>10.00000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5014,17 +5026,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>10.70000000</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5044,13 +5052,17 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>1.16000000</t>
+          <t>0.00500000</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5070,18 +5082,18 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>31.00000000</t>
+          <t>1.00000000</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5096,13 +5108,13 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>254.00000000</t>
+          <t>0.40000000</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5122,17 +5134,13 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>14.70000000</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5152,7 +5160,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5162,7 +5170,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.00010000</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5182,7 +5190,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
+          <t>Alumínio Dissolvido</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5212,18 +5220,18 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>14.00000000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -5238,18 +5246,18 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>1.00000000</t>
+          <t>25.70000000</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5264,22 +5272,18 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5294,18 +5298,18 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Fósforo-Ortofosfato</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>0.40000000</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5320,18 +5324,18 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Temperatura do Ar</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0.80000000</t>
+          <t>31.00000000</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5350,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5356,7 +5360,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5376,18 +5380,18 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0.50000000</t>
+          <t>3.21000000</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -5402,13 +5406,13 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -5428,18 +5432,18 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>220000.00000000</t>
+          <t>43.00000000</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5454,18 +5458,18 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>43.00000000</t>
+          <t>Não</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -5480,13 +5484,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -5506,18 +5514,18 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>404.00000000</t>
+          <t>0.50000000</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5532,18 +5540,18 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>10.70000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -5558,13 +5566,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>0.40000000</t>
+          <t>0.10000000</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -5584,18 +5596,18 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>2.00000000</t>
+          <t>220000.00000000</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -5610,18 +5622,18 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>2.03000000</t>
+          <t>242.00000000</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5648,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Crômio Total</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5646,7 +5658,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>0.00100000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -5666,13 +5678,13 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>57.60000000</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -5692,22 +5704,18 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>2.03000000</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -5722,13 +5730,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>57.60000000</t>
+          <t>0.00100000</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -5748,17 +5760,13 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>7.00000000</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -5778,18 +5786,18 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>0.40000000</t>
+          <t>404.00000000</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -5804,18 +5812,18 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>3.21000000</t>
+          <t>33.00000000</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5830,7 +5838,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
+          <t>Sólido Suspenso Total</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5840,7 +5848,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>0.00010000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -5860,17 +5868,13 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>0.00500000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -5890,17 +5894,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>0.10000000</t>
+          <t>0.80000000</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -5920,18 +5920,18 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Sulfato Total</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>14.00000000</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5946,18 +5946,18 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -5972,17 +5972,13 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>2.67000000</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -6002,18 +5998,18 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
+          <t>Cloreto Total</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>24.40000000</t>
+          <t>17.00000000</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6028,13 +6024,17 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Dureza</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>59.90000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -6054,17 +6054,13 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>0.20000000</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -6084,13 +6080,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>19.60000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -6136,17 +6136,13 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>19.60000000</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -6166,18 +6162,18 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>59.90000000</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6192,18 +6188,18 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>259.00000000</t>
+          <t>0.35000000</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6218,18 +6214,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Coloração</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Cinza</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6244,18 +6244,18 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>134.00000000</t>
+          <t>14.50000000</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -6270,18 +6270,18 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>22.40000000</t>
+          <t>13.50000000</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6296,18 +6296,18 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>17.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -6322,22 +6322,18 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>24.40000000</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6348,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
+          <t>Zinco Total</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6362,7 +6358,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -6382,7 +6378,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6392,7 +6388,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -6412,18 +6408,18 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>9.00000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -6438,13 +6434,13 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>13.50000000</t>
+          <t>6.06000000</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -6464,18 +6460,18 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>38000.00000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6490,13 +6486,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Potássio</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>5.70000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -6516,17 +6516,13 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>3.16000000</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -6546,17 +6542,13 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>9.00000000</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -6576,13 +6568,13 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Nitrogênio-Nitrito</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>0.35000000</t>
+          <t>0.06000000</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -6602,13 +6594,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>6.06000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -6628,18 +6624,22 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>2.67000000</t>
+          <t>0.48000000</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -6654,13 +6654,13 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>0.62000000</t>
+          <t>5.70000000</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
+          <t>Cobre Total</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -6710,13 +6710,17 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -6736,22 +6740,18 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>259.00000000</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -6766,13 +6766,17 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>0.36000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -6792,18 +6796,18 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>7.10000000</t>
+          <t>0.36000000</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6818,13 +6822,13 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>150.00000000</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -6844,13 +6848,13 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>0.30000000</t>
+          <t>7.52000000</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -6870,18 +6874,18 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>4.31000000</t>
+          <t>134.00000000</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -6896,18 +6900,18 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>2.08000000</t>
+          <t>38000.00000000</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -6922,13 +6926,13 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>150.00000000</t>
+          <t>0.98000000</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -6948,13 +6952,13 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Ferro Total</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>7.52000000</t>
+          <t>2.08000000</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -6974,22 +6978,18 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>0.48000000</t>
+          <t>22.40000000</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7004,18 +7004,18 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>3.16000000</t>
+          <t>4.31000000</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -7030,18 +7030,18 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Alumínio Total</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>14.50000000</t>
+          <t>0.62000000</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7056,18 +7056,18 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>0.06000000</t>
+          <t>Cinza</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7082,13 +7082,17 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>0.98000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -7108,17 +7112,13 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.30000000</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -7138,18 +7138,22 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>8.43000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7164,13 +7168,13 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Bário Total</t>
+          <t>Potássio</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>0.07000000</t>
+          <t>5.87000000</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -7190,18 +7194,18 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>22.80000000</t>
+          <t>4.64000000</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7216,17 +7220,13 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Chumbo Total</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>11.80000000</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -7246,13 +7246,13 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Cloreto Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>15.00000000</t>
+          <t>150.00000000</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -7272,22 +7272,18 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Alumínio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>25.70000000</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7302,18 +7298,22 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Temperatura do Ar</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr"/>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>25.70000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7328,13 +7328,13 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Sódio</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>6.34000000</t>
+          <t>13.60000000</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -7354,18 +7354,18 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Chuvas nas últimas 24h</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Sim</t>
+          <t>140.00000000</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7380,17 +7380,13 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Zinco Total</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -7410,13 +7406,13 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Alumínio Total</t>
+          <t>Nitrogênio-Nitrato</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>0.44000000</t>
+          <t>0.49000000</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -7436,22 +7432,18 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Crômio Total</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>7.10000000</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -7466,18 +7458,18 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>Profundidade da Coleta</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>150.00000000</t>
+          <t>0.00000000</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -7492,18 +7484,18 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>3.98000000</t>
+          <t>8.43000000</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -7518,18 +7510,18 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Manganês Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>0.36000000</t>
+          <t>22.80000000</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -7544,13 +7536,17 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>4.64000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -7570,13 +7566,13 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Magnésio Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>3.33000000</t>
+          <t>3.17000000</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -7596,17 +7592,13 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Fósforo-Ortofosfato</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -7626,13 +7618,17 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrato</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr"/>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>0.49000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -7652,18 +7648,18 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>0.11000000</t>
+          <t>250000.00000000</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -7678,13 +7674,13 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Fluoreto Total</t>
+          <t>Dureza</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>0.21000000</t>
+          <t>70.60000000</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -7704,13 +7700,13 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Nitrogênio-Nitrito</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>6.34000000</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -7730,13 +7726,17 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Ferro Total</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr"/>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>2.05000000</t>
+          <t>0.02000000</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -7756,17 +7756,13 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Níquel Total</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>0.02000000</t>
+          <t>15.00000000</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -7786,18 +7782,18 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Ferro Dissolvido</t>
+          <t>Clorofila-a</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>0.88000000</t>
+          <t>1.49000000</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -7812,18 +7808,18 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Feofitina-a</t>
+          <t>Cálcio Total</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>1.43000000</t>
+          <t>22.80000000</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7838,13 +7834,13 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Magnésio Total</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>3.17000000</t>
+          <t>3.33000000</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -7864,18 +7860,18 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Clorofila-a</t>
+          <t>Bário Total</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>1.49000000</t>
+          <t>0.07000000</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>µg/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7890,18 +7886,18 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Fluoreto Total</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>250000.00000000</t>
+          <t>0.21000000</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7916,18 +7912,18 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Dureza</t>
+          <t>Coloração</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
-          <t>70.60000000</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -7942,13 +7938,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Cálcio Total</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr"/>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>22.80000000</t>
+          <t>0.01000000</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -7968,18 +7968,22 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Profundidade da Coleta</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr"/>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>0.00000000</t>
+          <t>0.00080000</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -7994,7 +7998,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Cádmio Total</t>
+          <t>Cobre Dissolvido</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8004,7 +8008,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>0.00080000</t>
+          <t>0.00900000</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -8024,18 +8028,18 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Sulfato Total</t>
+          <t>Chuvas nas últimas 24h</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>11.80000000</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>Adimensional</t>
         </is>
       </c>
     </row>
@@ -8050,22 +8054,18 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Mercúrio Total</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>0.00020000</t>
+          <t>22.10000000</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>mg Pt/L</t>
         </is>
       </c>
     </row>
@@ -8080,18 +8080,18 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Cor Verdadeira</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>22.10000000</t>
+          <t>3.98000000</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>mg Pt/L</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8106,13 +8106,13 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Sódio</t>
+          <t>Ferro Dissolvido</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>13.60000000</t>
+          <t>0.88000000</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -8132,18 +8132,22 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr"/>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>254.00000000</t>
+          <t>0.11000000</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8158,18 +8162,18 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Coloração</t>
+          <t>Manganês Total</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>0.36000000</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Adimensional</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -8184,18 +8188,18 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>140.00000000</t>
+          <t>254.00000000</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -8210,17 +8214,13 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Cobre Total</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>0.01000000</t>
+          <t>2.05000000</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
+          <t>Mercúrio Total</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.00020000</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -8270,17 +8270,13 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Cobre Dissolvido</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>0.00900000</t>
+          <t>0.44000000</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -8300,18 +8296,18 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Potássio</t>
+          <t>Feofitina-a</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>5.87000000</t>
+          <t>1.43000000</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µg/L</t>
         </is>
       </c>
     </row>
@@ -8326,16 +8322,3658 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>2.67000000</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>16.80000000</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>1.07000000</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>12000.00000000</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>7.00000000</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2.06000000</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>1650.00000000</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>164.00000000</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>17.00000000</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>16.70000000</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>0.00100000</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Azul</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>0.05000000</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>22.00000000</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>152.00000000</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>137.00000000</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>0.00500000</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>1.00000000</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>300.00000000</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>0.24000000</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>0.70000000</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>20.20000000</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>12.20000000</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>9.00000000</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>0.15000000</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>0.80000000</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>0.22000000</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>16.50000000</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>2.00000000</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
           <t>pH</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr">
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>6.90000000</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>7.76000000</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>44363.39930555555</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>9.22000000</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>222.00000000</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>0.25000000</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>0.07000000</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>32.00000000</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>230.00000000</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>19.00000000</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>14.26000000</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>23.40000000</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>22.10000000</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>28.10000000</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>9.86000000</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>3.21000000</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>160000.00000000</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>58.80000000</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>0.32000000</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>1.22000000</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
         <is>
           <t>7.10000000</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>0.09000000</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>18.50000000</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>3.06000000</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>9.27000000</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>29.20000000</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>385.00000000</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>1.56000000</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>1.05000000</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>33.90000000</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>2.11000000</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>12.80000000</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>68.00000000</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>1.72000000</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>44448.43402777778</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>14.20000000</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrito</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>0.04000000</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Fluoreto Total</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>0.27000000</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>354.00000000</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>0.75000000</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Bário Total</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>0.07000000</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Nitrogênio-Nitrato</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>0.12000000</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Alumínio Total</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>0.19000000</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Zinco Total</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Magnésio Total</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>3.23000000</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Manganês Total</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>0.75000000</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Alumínio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>0.11000000</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>12.20000000</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Mercúrio Total</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>0.00020000</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>17.00000000</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Fósforo-Ortofosfato</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>0.10000000</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Chuvas nas últimas 24h</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Temperatura do Ar</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>23.60000000</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Cor Verdadeira</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>46.10000000</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>mg Pt/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Sólido Dissolvido Total</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>198.00000000</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Sódio</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>25.60000000</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Coloração</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Azul</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Adimensional</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>8.99000000</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Crômio Total</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Sulfato Total</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>17.00000000</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Cobre Total</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Cádmio Total</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>0.00080000</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Cobre Dissolvido</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>0.00900000</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Cálcio Total</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>21.90000000</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Profundidade da Coleta</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr"/>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>0.00000000</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr"/>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>214.00000000</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Dureza</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>68.00000000</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Clorofila-a</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>5.73000000</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>320000.00000000</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Potássio</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>8.65000000</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Cloreto Total</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>21.90000000</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>21.80000000</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Feofitina-a</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2.29000000</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>µg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>1.58000000</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Ferro Dissolvido</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr"/>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>0.91000000</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Ferro Total</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2.97000000</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Níquel Total</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>0.02000000</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Chumbo Total</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>0.01000000</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>MOVE03400</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>44532.38680555556</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>7.20000000</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
